--- a/metadata/study_locations.xlsx
+++ b/metadata/study_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kspann/Desktop/HMO Power Bi/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5D5E8-C021-924D-B583-9B275DC6C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C39169-8EF9-C844-B902-878374F4624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="1540" windowWidth="26740" windowHeight="14580" xr2:uid="{BF637580-2E5C-3B4B-B541-A8D5CC0B2007}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Study Name</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Rady Children's Hospital</t>
+  </si>
+  <si>
+    <t>DHM Pooled</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Mothers Milk Bank at Austin</t>
+  </si>
+  <si>
+    <t>Pooled DHM HMO Analysis</t>
   </si>
 </sst>
 </file>
@@ -468,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323CBC3C-3657-5A4A-9DED-2C0052B2760F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,6 +595,32 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>30.267199999999999</v>
+      </c>
+      <c r="G5">
+        <v>-97.743099999999998</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
